--- a/src/assets/samples/ImportScheduleTicketSample.xlsx
+++ b/src/assets/samples/ImportScheduleTicketSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afaqy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56732CE1-C8B8-420E-9E63-1262003185F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123BBBC1-740C-4505-9DF3-2A373C645E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,24 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Category id</t>
-  </si>
-  <si>
-    <t>Errand Type ID</t>
-  </si>
-  <si>
-    <t>Addon1 Errand Type ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quantity </t>
   </si>
   <si>
     <t>Addon1 Quantity</t>
   </si>
   <si>
-    <t>Addon2 Errand Type ID</t>
-  </si>
-  <si>
     <t>Addon2 Quantity</t>
   </si>
   <si>
@@ -64,6 +52,18 @@
   </si>
   <si>
     <t xml:space="preserve">end date </t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Errand Type</t>
+  </si>
+  <si>
+    <t>Addon1 Errand Type</t>
+  </si>
+  <si>
+    <t>Addon2 Errand Type</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -415,82 +415,47 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2">
-        <v>123455</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2" s="1">
-        <v>45505</v>
-      </c>
-      <c r="M2" s="1">
-        <v>46236</v>
-      </c>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
